--- a/literature/gene_list.xlsx
+++ b/literature/gene_list.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mackcross/Documents/meat_vs_fat_selection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mackcross/Documents/meat_vs_fat_selection/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E451CA6-882F-8943-AEF8-385D20A6F33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551943B7-86D9-D744-91A3-99E49FDB6963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30340" yWindow="3840" windowWidth="28040" windowHeight="17440" xr2:uid="{D36F015F-F9CE-2C47-849E-CCFCE8EA282F}"/>
+    <workbookView xWindow="-32440" yWindow="3500" windowWidth="32720" windowHeight="9900" xr2:uid="{D36F015F-F9CE-2C47-849E-CCFCE8EA282F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lipids" sheetId="1" r:id="rId1"/>
+    <sheet name="proteins" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Function</t>
   </si>
@@ -49,32 +50,168 @@
     <t>GPR84</t>
   </si>
   <si>
-    <t xml:space="preserve">Binds medium chain fatty acids </t>
-  </si>
-  <si>
-    <t>https://link.springer.com/chapter/10.1007/164_2021_437</t>
-  </si>
-  <si>
     <t>GPR43</t>
   </si>
   <si>
-    <t xml:space="preserve">Binds short chain saturated fatty acids </t>
-  </si>
-  <si>
     <t>CD36</t>
   </si>
   <si>
     <t>long-chain fatty acid and lipoprotein presception</t>
   </si>
   <si>
-    <t>https://academic.oup.com/hmg/article/17/11/1695/599714</t>
+    <t xml:space="preserve">Liu, Mechanism of fat taste perception </t>
+  </si>
+  <si>
+    <t>GPR40</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(MICE ONLY?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> responds to medium-chain and long chain fatty acids</t>
+    </r>
+  </si>
+  <si>
+    <t>GPR41</t>
+  </si>
+  <si>
+    <t>DRK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(MICE ONLY?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Binds short chain saturated fatty acids </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(MICE ONLY?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Binds short chain saturated fatty acids </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(MICE ONLY?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Binds medium chain fatty acids </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(MICE ONLY?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fatty acid sensitive DRK channels found in fungiform an dposterior part of tongue in mice</t>
+    </r>
+  </si>
+  <si>
+    <t>FFAR2</t>
+  </si>
+  <si>
+    <t>FFAR4</t>
+  </si>
+  <si>
+    <t>Costanzo_FFAR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAT receptor gene </t>
+  </si>
+  <si>
+    <t>KCNA2</t>
+  </si>
+  <si>
+    <t>TRPM5</t>
+  </si>
+  <si>
+    <t>Lin, GWAS</t>
+  </si>
+  <si>
+    <t>OR7D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smell androstenone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunde, genetic varaition of odarant receptor </t>
+  </si>
+  <si>
+    <t>FAT receptor gene; encodes GPR120 which responds to medium-chain and long chain fatty acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costanzo_FFAR4; Liu, Mechanism of fat taste perception </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +226,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,9 +253,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,16 +576,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A547AE-F186-9541-96FE-1247DA02C4CB}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="143.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9ED184-8F95-EB4B-8C28-48CA7F9C3DE2}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -451,39 +750,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
